--- a/templates/export/summary.xlsx
+++ b/templates/export/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17915d6377143df/Documentos/GitHub/traccar/templates/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B506042B-0104-4760-AD70-E4535EE85CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{B506042B-0104-4760-AD70-E4535EE85CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E569359-1361-4AA0-85A2-6BEA7177AA4C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -65,43 +65,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>Report type:</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Period:</t>
-  </si>
-  <si>
     <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>Start Odometer</t>
-  </si>
-  <si>
-    <t>End Odometer</t>
-  </si>
-  <si>
-    <t>Top speed</t>
-  </si>
-  <si>
-    <t>Average speed</t>
-  </si>
-  <si>
-    <t>Engine Hours</t>
-  </si>
-  <si>
-    <t>Spent Fuel</t>
   </si>
   <si>
     <t>${summary.deviceName}</t>
@@ -129,6 +93,42 @@
   </si>
   <si>
     <t>${volumeUnit.equals("impGal") ? "".format("%.1f Imp. Gal", summary.spentFuel / 4.546) : volumeUnit.equals("usGal") ? "".format("%.1f U.S. Gal", summary.spentFuel / 3.785) : "".format("%.1f l", summary.spentFuel)}</t>
+  </si>
+  <si>
+    <t>Resumen</t>
+  </si>
+  <si>
+    <t>Tipo de Reporte:</t>
+  </si>
+  <si>
+    <t>Periodo:</t>
+  </si>
+  <si>
+    <t>Dispositivo</t>
+  </si>
+  <si>
+    <t>Fecha de Inicio</t>
+  </si>
+  <si>
+    <t>Distnacia</t>
+  </si>
+  <si>
+    <t>Kilometraje Inicial</t>
+  </si>
+  <si>
+    <t>Kilometraje Final</t>
+  </si>
+  <si>
+    <t>Velocidad Máxima</t>
+  </si>
+  <si>
+    <t>Velocidad Promedio</t>
+  </si>
+  <si>
+    <t>Horas de Motor</t>
+  </si>
+  <si>
+    <t>Combustible consumido</t>
   </si>
 </sst>
 </file>
@@ -260,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -274,12 +274,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="15"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -289,14 +288,8 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -313,9 +306,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,13 +611,121 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343109C2-9000-E591-F0FE-A929143D4E1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27588D3D-2F59-DDFB-9EA0-0A1DCBDBECB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -656,7 +763,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -762,7 +869,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -915,10 +1022,10 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -931,123 +1038,104 @@
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="D7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="E7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="12" t="s">
+      <c r="F7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="H7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="I7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="J7" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
